--- a/bin/excel/SpanishEnglish-VERBS2.xlsx
+++ b/bin/excel/SpanishEnglish-VERBS2.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DETPC\Documents\NetBeansProjects\Produccion1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DETPC\Documents\JavaVSCodeProjects\LecturaImagenes\ReadingImages\src\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E6EC140-AFE5-4726-9E04-B7B7F0958091}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E828A51-4DAB-494E-B152-958B28F1CD9F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{48FDB698-C550-483D-A239-C921E9EAE320}"/>
+    <workbookView xWindow="10065" yWindow="3735" windowWidth="10425" windowHeight="7065" xr2:uid="{48FDB698-C550-483D-A239-C921E9EAE320}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -34,14 +34,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="95">
   <si>
     <t>español</t>
   </si>
   <si>
-    <t>inglés</t>
-  </si>
-  <si>
     <t>apuntar</t>
   </si>
   <si>
@@ -204,9 +201,6 @@
     <t>responder</t>
   </si>
   <si>
-    <t>atacar</t>
-  </si>
-  <si>
     <t>arreglar una situacion</t>
   </si>
   <si>
@@ -232,13 +226,106 @@
   </si>
   <si>
     <t>exito, golpear(un solo golpe)</t>
+  </si>
+  <si>
+    <t>golpear(a un objeto), dar con, combatir</t>
+  </si>
+  <si>
+    <t>int'end</t>
+  </si>
+  <si>
+    <t>jit</t>
+  </si>
+  <si>
+    <t>posh</t>
+  </si>
+  <si>
+    <t>prev'ent</t>
+  </si>
+  <si>
+    <t>ref'ius</t>
+  </si>
+  <si>
+    <t>lei</t>
+  </si>
+  <si>
+    <t>rev'iol</t>
+  </si>
+  <si>
+    <t>chek</t>
+  </si>
+  <si>
+    <t>er'ais</t>
+  </si>
+  <si>
+    <t>ber</t>
+  </si>
+  <si>
+    <t>jeng</t>
+  </si>
+  <si>
+    <t>sheik</t>
+  </si>
+  <si>
+    <t>gein</t>
+  </si>
+  <si>
+    <t>perf'orm</t>
+  </si>
+  <si>
+    <t>est'er</t>
+  </si>
+  <si>
+    <t>att'amt</t>
+  </si>
+  <si>
+    <t>bit</t>
+  </si>
+  <si>
+    <t>bi born</t>
+  </si>
+  <si>
+    <t>col'ect</t>
+  </si>
+  <si>
+    <t>pref'er</t>
+  </si>
+  <si>
+    <t>vois</t>
+  </si>
+  <si>
+    <t>ishu</t>
+  </si>
+  <si>
+    <t>maind</t>
+  </si>
+  <si>
+    <t>em</t>
+  </si>
+  <si>
+    <t>den'ai</t>
+  </si>
+  <si>
+    <t>ap'oint</t>
+  </si>
+  <si>
+    <t>repl'ai</t>
+  </si>
+  <si>
+    <t>rring</t>
+  </si>
+  <si>
+    <t>estr'aik</t>
+  </si>
+  <si>
+    <t>arr'ensh</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -249,6 +336,14 @@
     <font>
       <sz val="10"/>
       <name val="Arial"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -271,9 +366,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -590,8 +686,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{33E80C80-05A9-4CA4-AEA0-B97E37B4C112}">
   <dimension ref="A1:D32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="B33" sqref="B33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -604,13 +700,13 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>1</v>
+        <v>65</v>
       </c>
       <c r="C1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -618,13 +714,13 @@
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>1</v>
+        <v>66</v>
       </c>
       <c r="C2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -632,13 +728,13 @@
         <v>0</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>1</v>
+        <v>67</v>
       </c>
       <c r="C3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -646,13 +742,13 @@
         <v>0</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>1</v>
+        <v>68</v>
       </c>
       <c r="C4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -660,13 +756,13 @@
         <v>0</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>1</v>
+        <v>69</v>
       </c>
       <c r="C5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -674,13 +770,13 @@
         <v>0</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>1</v>
+        <v>70</v>
       </c>
       <c r="C6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
@@ -688,13 +784,13 @@
         <v>0</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>1</v>
+        <v>71</v>
       </c>
       <c r="C7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D7" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
@@ -702,13 +798,13 @@
         <v>0</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="C8" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D8" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
@@ -716,13 +812,13 @@
         <v>0</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>1</v>
+        <v>72</v>
       </c>
       <c r="C9" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D9" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
@@ -730,13 +826,13 @@
         <v>0</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>1</v>
+        <v>73</v>
       </c>
       <c r="C10" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D10" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
@@ -744,13 +840,13 @@
         <v>0</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="C11" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D11" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
@@ -758,13 +854,13 @@
         <v>0</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>1</v>
+        <v>74</v>
       </c>
       <c r="C12" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D12" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
@@ -772,13 +868,13 @@
         <v>0</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>1</v>
+        <v>75</v>
       </c>
       <c r="C13" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D13" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
@@ -786,13 +882,13 @@
         <v>0</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>1</v>
+        <v>76</v>
       </c>
       <c r="C14" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D14" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
@@ -800,13 +896,13 @@
         <v>0</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>1</v>
+        <v>77</v>
       </c>
       <c r="C15" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D15" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
@@ -814,13 +910,13 @@
         <v>0</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>1</v>
+        <v>78</v>
       </c>
       <c r="C16" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D16" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
@@ -828,13 +924,13 @@
         <v>0</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>1</v>
+        <v>79</v>
       </c>
       <c r="C17" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D17" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
@@ -842,13 +938,13 @@
         <v>0</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>1</v>
+        <v>80</v>
       </c>
       <c r="C18" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D18" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
@@ -856,13 +952,13 @@
         <v>0</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>1</v>
+        <v>81</v>
       </c>
       <c r="C19" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D19" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
@@ -870,13 +966,13 @@
         <v>0</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>1</v>
+        <v>82</v>
       </c>
       <c r="C20" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D20" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
@@ -884,13 +980,13 @@
         <v>0</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>1</v>
+        <v>83</v>
       </c>
       <c r="C21" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D21" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
@@ -898,13 +994,13 @@
         <v>0</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>1</v>
+        <v>84</v>
       </c>
       <c r="C22" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D22" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
@@ -912,13 +1008,13 @@
         <v>0</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>1</v>
+        <v>85</v>
       </c>
       <c r="C23" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D23" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
@@ -926,13 +1022,13 @@
         <v>0</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>1</v>
+        <v>86</v>
       </c>
       <c r="C24" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D24" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
@@ -940,13 +1036,13 @@
         <v>0</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>1</v>
+        <v>87</v>
       </c>
       <c r="C25" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D25" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
@@ -954,13 +1050,13 @@
         <v>0</v>
       </c>
       <c r="B26" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="C26" t="s">
         <v>1</v>
       </c>
-      <c r="C26" t="s">
-        <v>2</v>
-      </c>
       <c r="D26" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
@@ -968,13 +1064,13 @@
         <v>0</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>1</v>
+        <v>89</v>
       </c>
       <c r="C27" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D27" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
@@ -982,13 +1078,13 @@
         <v>0</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>1</v>
+        <v>90</v>
       </c>
       <c r="C28" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D28" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
@@ -996,13 +1092,13 @@
         <v>0</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>1</v>
+        <v>91</v>
       </c>
       <c r="C29" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D29" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
@@ -1010,13 +1106,13 @@
         <v>0</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>1</v>
+        <v>92</v>
       </c>
       <c r="C30" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D30" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
@@ -1024,13 +1120,13 @@
         <v>0</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>1</v>
+        <v>93</v>
       </c>
       <c r="C31" t="s">
-        <v>56</v>
+        <v>64</v>
       </c>
       <c r="D31" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
@@ -1038,13 +1134,13 @@
         <v>0</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C32" t="s">
-        <v>57</v>
+        <v>94</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>55</v>
       </c>
       <c r="D32" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
   </sheetData>
